--- a/data/hotels_by_city/Dallas/Dallas_shard_547.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_547.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="166">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,377 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r429526202-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>55461</t>
+  </si>
+  <si>
+    <t>2170350</t>
+  </si>
+  <si>
+    <t>429526202</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t>Do not stay here</t>
+  </si>
+  <si>
+    <t>The hotel in being worked on. The grounds are dirty with litter and cigarettes. Lobby was not accessible. I asked for a room with a fridge and microwave. There was none. I called the front desk and he said none of the rooms have one. The road noise from the busy highway was so loud I could not sleep. The room had a bed, a desk, a chair, a TV hanging on the wall, that was it. The bathroom was so old and dingy I would not use it. The room 118 is adjoined to 120 with an interior door, I could hear those guests who were so loud, I could not hear the TV. After 2 hours, I was disgusted and left.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>The hotel in being worked on. The grounds are dirty with litter and cigarettes. Lobby was not accessible. I asked for a room with a fridge and microwave. There was none. I called the front desk and he said none of the rooms have one. The road noise from the busy highway was so loud I could not sleep. The room had a bed, a desk, a chair, a TV hanging on the wall, that was it. The bathroom was so old and dingy I would not use it. The room 118 is adjoined to 120 with an interior door, I could hear those guests who were so loud, I could not hear the TV. After 2 hours, I was disgusted and left.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r421615266-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>421615266</t>
+  </si>
+  <si>
+    <t>09/23/2016</t>
+  </si>
+  <si>
+    <t>Worst Hotel Experience</t>
+  </si>
+  <si>
+    <t>This is the worse hotel I've ever stayed at. The room smelt awful like cigarettes even though I got a non-smoking room. The bathroom floor was very dirty and wasn't mopped. The toilet was filthy as can be. There was yellow stains where the toilet water line was which means that they didn't bother cleaning the toilet on a regular basis. The bed and sheets was very dirty. The bed and pillow wasn't comfortable at all. The room advertised a fridge however when I got to my room there was no fridge. I asked to stay in a fridge and the front desk said there is no fridge. I would not recommend staying at this place at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>This is the worse hotel I've ever stayed at. The room smelt awful like cigarettes even though I got a non-smoking room. The bathroom floor was very dirty and wasn't mopped. The toilet was filthy as can be. There was yellow stains where the toilet water line was which means that they didn't bother cleaning the toilet on a regular basis. The bed and sheets was very dirty. The bed and pillow wasn't comfortable at all. The room advertised a fridge however when I got to my room there was no fridge. I asked to stay in a fridge and the front desk said there is no fridge. I would not recommend staying at this place at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r415143303-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>415143303</t>
+  </si>
+  <si>
+    <t>09/05/2016</t>
+  </si>
+  <si>
+    <t>Poor Management</t>
+  </si>
+  <si>
+    <t>Drove in for a Rangers game and a local bbq and blues festival. At check in found hotel under renovation, did not think much of it although the lobby did have materials and was full of construction dust. Used elevator to carry my lugage to room and elevator was full of dirt as well with splaters of white wall filler from I'm guessing the remodel in effect, still not prejudging. Got to my room and key card will not open door, used stair way to have key exchanged and carpets and stair way with alot of construction dust and cigar buds and empthy cigar boxes. At reception, gentlemen apoligize for inconvinience with card and advised me to: " call from my room If I was still having issues with my key" ???
+Finally got to our room and it seem to be empty, Just a bed with a TV. Wood flooring seem to be brand new and room seem clean. No clothhanging furniture, ironing board or iron. Restroom tile seem to be in process, like they were going to remove it but decided not to. Towels had a paint like smell like they were stored on a newley painted facility. Next couple of days we used stairs to go out and hallways and starways still full of wall dust and cigaret buds although the construction crew had left for the week end. Coffee was served at lobby for morining, but...Drove in for a Rangers game and a local bbq and blues festival. At check in found hotel under renovation, did not think much of it although the lobby did have materials and was full of construction dust. Used elevator to carry my lugage to room and elevator was full of dirt as well with splaters of white wall filler from I'm guessing the remodel in effect, still not prejudging. Got to my room and key card will not open door, used stair way to have key exchanged and carpets and stair way with alot of construction dust and cigar buds and empthy cigar boxes. At reception, gentlemen apoligize for inconvinience with card and advised me to: " call from my room If I was still having issues with my key" ???Finally got to our room and it seem to be empty, Just a bed with a TV. Wood flooring seem to be brand new and room seem clean. No clothhanging furniture, ironing board or iron. Restroom tile seem to be in process, like they were going to remove it but decided not to. Towels had a paint like smell like they were stored on a newley painted facility. Next couple of days we used stairs to go out and hallways and starways still full of wall dust and cigaret buds although the construction crew had left for the week end. Coffee was served at lobby for morining, but the atmosfere was not apealing. We understand the fact that the hotel is on a remodel process, but the reception host could make at least the walkways and elevator more apealing instead of just sitting waiting for his/her shift to end. A quick vaccum on the carpeted area for just that week end that there was no construcction going on could have gone a long way. Also if a room was not ready for availability, don't make it Available! Due to the great location, next to a Steakhouse, a cheap eats fast food restaurant, a tire shop behind and just off the hwy way makes it appealing. By the way if you want a great breakfast with Great service, just go across the Highway. The next day I had problems with my key card again, so here we go with the same story. If I went back to town, I would give it one more chanse once it is completely remodeled and clened up.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Ft Worth- Bedford, responded to this reviewResponded September 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2016</t>
+  </si>
+  <si>
+    <t>Drove in for a Rangers game and a local bbq and blues festival. At check in found hotel under renovation, did not think much of it although the lobby did have materials and was full of construction dust. Used elevator to carry my lugage to room and elevator was full of dirt as well with splaters of white wall filler from I'm guessing the remodel in effect, still not prejudging. Got to my room and key card will not open door, used stair way to have key exchanged and carpets and stair way with alot of construction dust and cigar buds and empthy cigar boxes. At reception, gentlemen apoligize for inconvinience with card and advised me to: " call from my room If I was still having issues with my key" ???
+Finally got to our room and it seem to be empty, Just a bed with a TV. Wood flooring seem to be brand new and room seem clean. No clothhanging furniture, ironing board or iron. Restroom tile seem to be in process, like they were going to remove it but decided not to. Towels had a paint like smell like they were stored on a newley painted facility. Next couple of days we used stairs to go out and hallways and starways still full of wall dust and cigaret buds although the construction crew had left for the week end. Coffee was served at lobby for morining, but...Drove in for a Rangers game and a local bbq and blues festival. At check in found hotel under renovation, did not think much of it although the lobby did have materials and was full of construction dust. Used elevator to carry my lugage to room and elevator was full of dirt as well with splaters of white wall filler from I'm guessing the remodel in effect, still not prejudging. Got to my room and key card will not open door, used stair way to have key exchanged and carpets and stair way with alot of construction dust and cigar buds and empthy cigar boxes. At reception, gentlemen apoligize for inconvinience with card and advised me to: " call from my room If I was still having issues with my key" ???Finally got to our room and it seem to be empty, Just a bed with a TV. Wood flooring seem to be brand new and room seem clean. No clothhanging furniture, ironing board or iron. Restroom tile seem to be in process, like they were going to remove it but decided not to. Towels had a paint like smell like they were stored on a newley painted facility. Next couple of days we used stairs to go out and hallways and starways still full of wall dust and cigaret buds although the construction crew had left for the week end. Coffee was served at lobby for morining, but the atmosfere was not apealing. We understand the fact that the hotel is on a remodel process, but the reception host could make at least the walkways and elevator more apealing instead of just sitting waiting for his/her shift to end. A quick vaccum on the carpeted area for just that week end that there was no construcction going on could have gone a long way. Also if a room was not ready for availability, don't make it Available! Due to the great location, next to a Steakhouse, a cheap eats fast food restaurant, a tire shop behind and just off the hwy way makes it appealing. By the way if you want a great breakfast with Great service, just go across the Highway. The next day I had problems with my key card again, so here we go with the same story. If I went back to town, I would give it one more chanse once it is completely remodeled and clened up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r341181597-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>341181597</t>
+  </si>
+  <si>
+    <t>01/19/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awful smell, beware </t>
+  </si>
+  <si>
+    <t>Stayed a week, the first thing you notice is the awful smell in the building, especially the rooms. Carpets reek. There was no shampoo in the room and getting some was a hassle. TV only had one channel, ESPN. Even though we got a great price on the room, I wouldn't come back.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r334257057-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>334257057</t>
+  </si>
+  <si>
+    <t>12/21/2015</t>
+  </si>
+  <si>
+    <t>The best accommodation you will get for less than $50 per night in the DFW Metroplex</t>
+  </si>
+  <si>
+    <t>This is my third stay at this property and the service and furnishings have consistently been outstanding.  The location -- on State Highway 121 -- close to the intersection with SH 183 is very good.  Some nice restaurants nearby as well.  Also very close to the airport.  Highly recommended.  The only reason I am giving it four rather than five stars is because the wifi was unreliable.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r309505987-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>309505987</t>
+  </si>
+  <si>
+    <t>09/12/2015</t>
+  </si>
+  <si>
+    <t>A picture speaks louder than words!</t>
+  </si>
+  <si>
+    <t>Bad, filthy and everything else....my pictures speak for me.  Stay away! bed bugs, mold, front desk an assortment of young men from India or the Middle East and a lot of non English speaking guests coming and going...hang out for the homeless and panhandlers.  Horrible.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r264545562-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>264545562</t>
+  </si>
+  <si>
+    <t>04/08/2015</t>
+  </si>
+  <si>
+    <t>Great Place Great People</t>
+  </si>
+  <si>
+    <t>I've stayed here multiple times whenever i'm in town. The rooms are wonderful microwave Fridge. The linens are top notch beds are very comfy. Bathrooms are above clean. Something I take particular notice to. They have rooms to soot when my family comes. The owner and desk personel were very helpful and polite every time. recommend Motel 6 Bedford to everyone. Also pet friendly wich is a plus my dog travels with me always.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r264541202-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>264541202</t>
+  </si>
+  <si>
+    <t>The staff is friendly and made me feel at home.</t>
+  </si>
+  <si>
+    <t>From the moment I checked in I felt at home the staff is friendly and the hotel is comfortable. after deciding to make it an extended stay, the owner MiMi  was very helpful with getting me settled in for my stay she made sure that I was moved to a  new room with fridge and a microwave. The maid service was done by very nice and hard working ladies , The coffee service in the am was a blessing, and the occasional driving through the property of the Bedford police department made walking my dog after sundown less taxing on me being in a new environment. Basically loved the place the staff and the warm and prompt service and will be back again!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>From the moment I checked in I felt at home the staff is friendly and the hotel is comfortable. after deciding to make it an extended stay, the owner MiMi  was very helpful with getting me settled in for my stay she made sure that I was moved to a  new room with fridge and a microwave. The maid service was done by very nice and hard working ladies , The coffee service in the am was a blessing, and the occasional driving through the property of the Bedford police department made walking my dog after sundown less taxing on me being in a new environment. Basically loved the place the staff and the warm and prompt service and will be back again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r264090330-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>264090330</t>
+  </si>
+  <si>
+    <t>04/06/2015</t>
+  </si>
+  <si>
+    <t>NEVER COMING BACK</t>
+  </si>
+  <si>
+    <t>We had to stay in this hotel while visiting family in Dallas. We were totally disgusted with our stayList of flaws includes: pubes on towelscompletely outdated appliancesmoldy showerterrible mattressesWorst of all our toilet broke. The water flooded the bathroom and we were left with no facilities. The only thing saving a one star review was the sweet maid that came quickly and politely cleaned. When we went to complain to the man at the desk, he turned to blame it on us for not telling him quickly enough. He could not doing anything in terms of a refund, but he had ME talk to a manager on the phone. Lucky for them they gave a 50% reimbursement.Even without the toilet this would have been a dreadful stay. AVOIDMoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Ft Worth- Bedford, responded to this reviewResponded April 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2015</t>
+  </si>
+  <si>
+    <t>We had to stay in this hotel while visiting family in Dallas. We were totally disgusted with our stayList of flaws includes: pubes on towelscompletely outdated appliancesmoldy showerterrible mattressesWorst of all our toilet broke. The water flooded the bathroom and we were left with no facilities. The only thing saving a one star review was the sweet maid that came quickly and politely cleaned. When we went to complain to the man at the desk, he turned to blame it on us for not telling him quickly enough. He could not doing anything in terms of a refund, but he had ME talk to a manager on the phone. Lucky for them they gave a 50% reimbursement.Even without the toilet this would have been a dreadful stay. AVOIDMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r238192503-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>238192503</t>
+  </si>
+  <si>
+    <t>11/04/2014</t>
+  </si>
+  <si>
+    <t>Good Price and Super clean!</t>
+  </si>
+  <si>
+    <t>I stayed here last week with my fiance.  The room was clean and the bathroom was spic and span!  The place is lovely, and the staff is very friendly.  You never want for a parking spot.  It's conveniently located about fifteen minutes away from the airport.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r196568035-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>196568035</t>
+  </si>
+  <si>
+    <t>03/07/2014</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>Due to my husband's job we have stayed in many hotels and I have to say that this one is the nicest one we have stayed at. Everything is always clean, I didn't see one bug during our stay of a month, the staff is friendly, and we had a microwave in our room which really comes on handy when you are staying for a few days. The General Manager Mimi was very helpful and always answered all of our questions. I definitely recommend this place to anyone looking to stay the night or even a few weeks.Sheila A.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r194751950-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>194751950</t>
+  </si>
+  <si>
+    <t>02/20/2014</t>
+  </si>
+  <si>
+    <t>Had to SEE it to Believe IT!!</t>
+  </si>
+  <si>
+    <t>This is like a Totally NEW PLACE compared to last years visit! Somebody is actually giving this place the much needed Tender Loving Care. so many new faces of which are so courteous and actually have customer service skills. My room was clean , bed linens clean, coke machines work, laundry rooms cleaned, and they are repairing other things throughout building! The new Coffee and Tea station in the Lobby was a nice, added perk! it appears they've chased all the "Shady" characters out , and I've not seen the police at all(unlike my last stay when they were here twice).Good Job Motel 6, for restoring my faith in your Motel, and for restoring this place to its full potential!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>This is like a Totally NEW PLACE compared to last years visit! Somebody is actually giving this place the much needed Tender Loving Care. so many new faces of which are so courteous and actually have customer service skills. My room was clean , bed linens clean, coke machines work, laundry rooms cleaned, and they are repairing other things throughout building! The new Coffee and Tea station in the Lobby was a nice, added perk! it appears they've chased all the "Shady" characters out , and I've not seen the police at all(unlike my last stay when they were here twice).Good Job Motel 6, for restoring my faith in your Motel, and for restoring this place to its full potential!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r166614222-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>166614222</t>
+  </si>
+  <si>
+    <t>07/07/2013</t>
+  </si>
+  <si>
+    <t>ROACHES! Burst water pipes! Ceiling falling down! Horrible management!</t>
+  </si>
+  <si>
+    <t>The worst I have ever seen anywhere - the Health Dept needs to shut it down! Called Motel 6 corporate and they are investigating. It was easy to book online, and I got a special Internet rate when I reserved my deluxe king size room. The manager barely spoke English, kept interrupting my check-in to help other people, and it took 40mins to get keys. Those were to a double queen handicapped room, which had mold and mildew, the ceiling in the bathroom falling down, and a burst water pipe so the carpet was soaking wet. When I asked to switch rooms, they said they didn't have any others - even the one I reserved. I called Motel 6 guest relations, filed a formal complaint, and they called the manager. Lo and behold - there is the room I booked, which they called a "special" room that was more money. It was trashed, too, but we changed to that - still having to pay more money! They did not honor any of our rates at all, and wanted to sell me a week prepaid. The room was worse than a flop house - couch chewed and falling apart; saggy, old bouncy mattress with no pad; no batteries in smoke detector; bullet hole in glass window; rips in carpet; the list goes on. The worst was when a huge Roach ran across the bed! We hightailed it out of there and...The worst I have ever seen anywhere - the Health Dept needs to shut it down! Called Motel 6 corporate and they are investigating. It was easy to book online, and I got a special Internet rate when I reserved my deluxe king size room. The manager barely spoke English, kept interrupting my check-in to help other people, and it took 40mins to get keys. Those were to a double queen handicapped room, which had mold and mildew, the ceiling in the bathroom falling down, and a burst water pipe so the carpet was soaking wet. When I asked to switch rooms, they said they didn't have any others - even the one I reserved. I called Motel 6 guest relations, filed a formal complaint, and they called the manager. Lo and behold - there is the room I booked, which they called a "special" room that was more money. It was trashed, too, but we changed to that - still having to pay more money! They did not honor any of our rates at all, and wanted to sell me a week prepaid. The room was worse than a flop house - couch chewed and falling apart; saggy, old bouncy mattress with no pad; no batteries in smoke detector; bullet hole in glass window; rips in carpet; the list goes on. The worst was when a huge Roach ran across the bed! We hightailed it out of there and went to Value Place in Trophy Club, which is clean and a good value.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>The worst I have ever seen anywhere - the Health Dept needs to shut it down! Called Motel 6 corporate and they are investigating. It was easy to book online, and I got a special Internet rate when I reserved my deluxe king size room. The manager barely spoke English, kept interrupting my check-in to help other people, and it took 40mins to get keys. Those were to a double queen handicapped room, which had mold and mildew, the ceiling in the bathroom falling down, and a burst water pipe so the carpet was soaking wet. When I asked to switch rooms, they said they didn't have any others - even the one I reserved. I called Motel 6 guest relations, filed a formal complaint, and they called the manager. Lo and behold - there is the room I booked, which they called a "special" room that was more money. It was trashed, too, but we changed to that - still having to pay more money! They did not honor any of our rates at all, and wanted to sell me a week prepaid. The room was worse than a flop house - couch chewed and falling apart; saggy, old bouncy mattress with no pad; no batteries in smoke detector; bullet hole in glass window; rips in carpet; the list goes on. The worst was when a huge Roach ran across the bed! We hightailed it out of there and...The worst I have ever seen anywhere - the Health Dept needs to shut it down! Called Motel 6 corporate and they are investigating. It was easy to book online, and I got a special Internet rate when I reserved my deluxe king size room. The manager barely spoke English, kept interrupting my check-in to help other people, and it took 40mins to get keys. Those were to a double queen handicapped room, which had mold and mildew, the ceiling in the bathroom falling down, and a burst water pipe so the carpet was soaking wet. When I asked to switch rooms, they said they didn't have any others - even the one I reserved. I called Motel 6 guest relations, filed a formal complaint, and they called the manager. Lo and behold - there is the room I booked, which they called a "special" room that was more money. It was trashed, too, but we changed to that - still having to pay more money! They did not honor any of our rates at all, and wanted to sell me a week prepaid. The room was worse than a flop house - couch chewed and falling apart; saggy, old bouncy mattress with no pad; no batteries in smoke detector; bullet hole in glass window; rips in carpet; the list goes on. The worst was when a huge Roach ran across the bed! We hightailed it out of there and went to Value Place in Trophy Club, which is clean and a good value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r153248398-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>153248398</t>
+  </si>
+  <si>
+    <t>02/26/2013</t>
+  </si>
+  <si>
+    <t>Get what you pay for</t>
+  </si>
+  <si>
+    <t>Got a King Suite - Had a desk no Chair, Brought this to their attention. Response "You need a chair? " Room 204 - Pillows looked to be 20 years old. Toliet had to use the Ice bucket to add water to the back after flushing - Float Mech. needs replaced . Stayed here when it was a Comfort Inn - No Problem . Conforter was a Dark Green with a large spot ( I suspect Bleech) on it. The phone key pad looked liked someone poured coke on ot Keys stuck . I did agressive request a replacement - They gave me a new one. My stay here was only a total of 4 days until I moved to La Quinta . I suspect if a little is Maintence and Upkeep is notll this MOTEL DUMP  invested in You can caMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Got a King Suite - Had a desk no Chair, Brought this to their attention. Response "You need a chair? " Room 204 - Pillows looked to be 20 years old. Toliet had to use the Ice bucket to add water to the back after flushing - Float Mech. needs replaced . Stayed here when it was a Comfort Inn - No Problem . Conforter was a Dark Green with a large spot ( I suspect Bleech) on it. The phone key pad looked liked someone poured coke on ot Keys stuck . I did agressive request a replacement - They gave me a new one. My stay here was only a total of 4 days until I moved to La Quinta . I suspect if a little is Maintence and Upkeep is notll this MOTEL DUMP  invested in You can caMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r149367291-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>149367291</t>
+  </si>
+  <si>
+    <t>01/10/2013</t>
+  </si>
+  <si>
+    <t>Good choice</t>
+  </si>
+  <si>
+    <t>The staff was friendly and helpful.  The room was clean.  I wanted a microwave and fridge and was given each.  The bed is pretty comfortable but still needs a topper for my taste.  The bedspreads show signs of being washed often which is a good thing.  I saw bed pads...used to protect the mattress..out in the hall to be washed...that is a good thing.  This was a Comfort Inn prior to becoming Motel 6 and is so much better than the normal Motel 6.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r7781055-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>7781055</t>
+  </si>
+  <si>
+    <t>06/04/2007</t>
+  </si>
+  <si>
+    <t>Aged or not taken care of.  Either way- thumbs down.</t>
+  </si>
+  <si>
+    <t>The hotel is worn.  Wall paper falling off the wall.  Stained curtains.  Staff was nice.Continental breakfast was all bread.  No proteins.  Not even any type of juice:  Coffee, Milk.  Water.And breads and cereals.</t>
+  </si>
+  <si>
+    <t>June 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r4306019-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>4306019</t>
+  </si>
+  <si>
+    <t>12/26/2005</t>
+  </si>
+  <si>
+    <t>Don't Stay Here</t>
+  </si>
+  <si>
+    <t>We were in town for the NASCAR race. At check in the clerk tried to raise our RESERVED room rate by $41 without my knowledge. When I called her on it she began yelling at me. I finally got the room rate back to where we reseved it and went to my room where I found two lightbulbs out so I went back down to the desk to get more. At this point I overheard the employee telling another employee how she "shut me up" and calling me flithy names. I spoke with the manager on duty and he had no comment and didn't even apologize for the incidents. This was the worst hotel experience I've ever had. I filed a complaint with Choice Hotels international and the property totally ignored them as well. You're better off sleeping in your car than staying at this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were in town for the NASCAR race. At check in the clerk tried to raise our RESERVED room rate by $41 without my knowledge. When I called her on it she began yelling at me. I finally got the room rate back to where we reseved it and went to my room where I found two lightbulbs out so I went back down to the desk to get more. At this point I overheard the employee telling another employee how she "shut me up" and calling me flithy names. I spoke with the manager on duty and he had no comment and didn't even apologize for the incidents. This was the worst hotel experience I've ever had. I filed a complaint with Choice Hotels international and the property totally ignored them as well. You're better off sleeping in your car than staying at this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r3697746-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>3697746</t>
+  </si>
+  <si>
+    <t>07/23/2005</t>
+  </si>
+  <si>
+    <t>No Comfort at the Comfort INN</t>
+  </si>
+  <si>
+    <t>OK, I knew there was gonna be trouble when  we pulled up and it looked like they were under construction.  The lobby was ok but their breakfast area looked questionable.  We were directed to our room down the hall and the fun began.  The room smelled very musty.  The bathroom was ok clean but not really.  Stray hairs ect.  Gave me the creeps.  The bed was not very comfortable.  I booked this hotel because it was close to the airport, had a continental breakfast and an airport shuttle.  The continental breakfast consisted of a loaf of bread left out by the toaster and a stack of frozen waffles placed on a plate by the toaster.  There was also a few boxes of cereal and milk and coffee.  That was it.  No pastries, no fruit, NOTHING!  The shuttle to the airport consisted of an unmarked van driven by a questionable man who gave us a lecture all the way to the airport about the Bible.  Now, I am a Christian, and I love a Bible discussion as much as the next traveler trying to get to the airport, but give me a break!  We were never so happy to get away from anyone in our entire lives.  We were also told he would know exactly where to take us for our flight.  He had no idea.  Wouldn't recommend this one, folks!MoreShow less</t>
+  </si>
+  <si>
+    <t>OK, I knew there was gonna be trouble when  we pulled up and it looked like they were under construction.  The lobby was ok but their breakfast area looked questionable.  We were directed to our room down the hall and the fun began.  The room smelled very musty.  The bathroom was ok clean but not really.  Stray hairs ect.  Gave me the creeps.  The bed was not very comfortable.  I booked this hotel because it was close to the airport, had a continental breakfast and an airport shuttle.  The continental breakfast consisted of a loaf of bread left out by the toaster and a stack of frozen waffles placed on a plate by the toaster.  There was also a few boxes of cereal and milk and coffee.  That was it.  No pastries, no fruit, NOTHING!  The shuttle to the airport consisted of an unmarked van driven by a questionable man who gave us a lecture all the way to the airport about the Bible.  Now, I am a Christian, and I love a Bible discussion as much as the next traveler trying to get to the airport, but give me a break!  We were never so happy to get away from anyone in our entire lives.  We were also told he would know exactly where to take us for our flight.  He had no idea.  Wouldn't recommend this one, folks!More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +1016,1138 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36167</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36167</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36167</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36167</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>36167</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>36167</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>36167</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36167</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>36167</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>106</v>
+      </c>
+      <c r="X10" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>36167</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>114</v>
+      </c>
+      <c r="O11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>36167</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>36167</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36167</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" t="s">
+        <v>133</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36167</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K15" t="s">
+        <v>138</v>
+      </c>
+      <c r="L15" t="s">
+        <v>139</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36167</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" t="s">
+        <v>146</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>147</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>36167</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>149</v>
+      </c>
+      <c r="J17" t="s">
+        <v>150</v>
+      </c>
+      <c r="K17" t="s">
+        <v>151</v>
+      </c>
+      <c r="L17" t="s">
+        <v>152</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>153</v>
+      </c>
+      <c r="O17" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36167</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" t="s">
+        <v>156</v>
+      </c>
+      <c r="K18" t="s">
+        <v>157</v>
+      </c>
+      <c r="L18" t="s">
+        <v>158</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>36167</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>161</v>
+      </c>
+      <c r="J19" t="s">
+        <v>162</v>
+      </c>
+      <c r="K19" t="s">
+        <v>163</v>
+      </c>
+      <c r="L19" t="s">
+        <v>164</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>165</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_547.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_547.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="183">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>12marijke</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t>The hotel in being worked on. The grounds are dirty with litter and cigarettes. Lobby was not accessible. I asked for a room with a fridge and microwave. There was none. I called the front desk and he said none of the rooms have one. The road noise from the busy highway was so loud I could not sleep. The room had a bed, a desk, a chair, a TV hanging on the wall, that was it. The bathroom was so old and dingy I would not use it. The room 118 is adjoined to 120 with an interior door, I could hear those guests who were so loud, I could not hear the TV. After 2 hours, I was disgusted and left.More</t>
   </si>
   <si>
+    <t>HenryKnow</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r421615266-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -202,6 +208,9 @@
   </si>
   <si>
     <t>This is the worse hotel I've ever stayed at. The room smelt awful like cigarettes even though I got a non-smoking room. The bathroom floor was very dirty and wasn't mopped. The toilet was filthy as can be. There was yellow stains where the toilet water line was which means that they didn't bother cleaning the toilet on a regular basis. The bed and sheets was very dirty. The bed and pillow wasn't comfortable at all. The room advertised a fridge however when I got to my room there was no fridge. I asked to stay in a fridge and the front desk said there is no fridge. I would not recommend staying at this place at all.More</t>
+  </si>
+  <si>
+    <t>TonyandHilda</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r415143303-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
@@ -233,6 +242,9 @@
 Finally got to our room and it seem to be empty, Just a bed with a TV. Wood flooring seem to be brand new and room seem clean. No clothhanging furniture, ironing board or iron. Restroom tile seem to be in process, like they were going to remove it but decided not to. Towels had a paint like smell like they were stored on a newley painted facility. Next couple of days we used stairs to go out and hallways and starways still full of wall dust and cigaret buds although the construction crew had left for the week end. Coffee was served at lobby for morining, but...Drove in for a Rangers game and a local bbq and blues festival. At check in found hotel under renovation, did not think much of it although the lobby did have materials and was full of construction dust. Used elevator to carry my lugage to room and elevator was full of dirt as well with splaters of white wall filler from I'm guessing the remodel in effect, still not prejudging. Got to my room and key card will not open door, used stair way to have key exchanged and carpets and stair way with alot of construction dust and cigar buds and empthy cigar boxes. At reception, gentlemen apoligize for inconvinience with card and advised me to: " call from my room If I was still having issues with my key" ???Finally got to our room and it seem to be empty, Just a bed with a TV. Wood flooring seem to be brand new and room seem clean. No clothhanging furniture, ironing board or iron. Restroom tile seem to be in process, like they were going to remove it but decided not to. Towels had a paint like smell like they were stored on a newley painted facility. Next couple of days we used stairs to go out and hallways and starways still full of wall dust and cigaret buds although the construction crew had left for the week end. Coffee was served at lobby for morining, but the atmosfere was not apealing. We understand the fact that the hotel is on a remodel process, but the reception host could make at least the walkways and elevator more apealing instead of just sitting waiting for his/her shift to end. A quick vaccum on the carpeted area for just that week end that there was no construcction going on could have gone a long way. Also if a room was not ready for availability, don't make it Available! Due to the great location, next to a Steakhouse, a cheap eats fast food restaurant, a tire shop behind and just off the hwy way makes it appealing. By the way if you want a great breakfast with Great service, just go across the Highway. The next day I had problems with my key card again, so here we go with the same story. If I went back to town, I would give it one more chanse once it is completely remodeled and clened up.More</t>
   </si>
   <si>
+    <t>Yocheved S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r341181597-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -251,6 +263,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>mmkarim786</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r334257057-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -269,6 +284,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>Jamie S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r309505987-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -287,6 +305,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>David B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r264545562-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -305,6 +326,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>Grace Michele S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r264541202-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -323,6 +347,9 @@
     <t>From the moment I checked in I felt at home the staff is friendly and the hotel is comfortable. after deciding to make it an extended stay, the owner MiMi  was very helpful with getting me settled in for my stay she made sure that I was moved to a  new room with fridge and a microwave. The maid service was done by very nice and hard working ladies , The coffee service in the am was a blessing, and the occasional driving through the property of the Bedford police department made walking my dog after sundown less taxing on me being in a new environment. Basically loved the place the staff and the warm and prompt service and will be back again!More</t>
   </si>
   <si>
+    <t>AJ I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r264090330-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -347,6 +374,9 @@
     <t>We had to stay in this hotel while visiting family in Dallas. We were totally disgusted with our stayList of flaws includes: pubes on towelscompletely outdated appliancesmoldy showerterrible mattressesWorst of all our toilet broke. The water flooded the bathroom and we were left with no facilities. The only thing saving a one star review was the sweet maid that came quickly and politely cleaned. When we went to complain to the man at the desk, he turned to blame it on us for not telling him quickly enough. He could not doing anything in terms of a refund, but he had ME talk to a manager on the phone. Lucky for them they gave a 50% reimbursement.Even without the toilet this would have been a dreadful stay. AVOIDMore</t>
   </si>
   <si>
+    <t>midnightkat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r238192503-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -365,6 +395,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>SheilaAnderson316</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r196568035-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -380,6 +413,9 @@
     <t>Due to my husband's job we have stayed in many hotels and I have to say that this one is the nicest one we have stayed at. Everything is always clean, I didn't see one bug during our stay of a month, the staff is friendly, and we had a microwave in our room which really comes on handy when you are staying for a few days. The General Manager Mimi was very helpful and always answered all of our questions. I definitely recommend this place to anyone looking to stay the night or even a few weeks.Sheila A.</t>
   </si>
   <si>
+    <t>jamie p</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r194751950-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -401,6 +437,9 @@
     <t>This is like a Totally NEW PLACE compared to last years visit! Somebody is actually giving this place the much needed Tender Loving Care. so many new faces of which are so courteous and actually have customer service skills. My room was clean , bed linens clean, coke machines work, laundry rooms cleaned, and they are repairing other things throughout building! The new Coffee and Tea station in the Lobby was a nice, added perk! it appears they've chased all the "Shady" characters out , and I've not seen the police at all(unlike my last stay when they were here twice).Good Job Motel 6, for restoring my faith in your Motel, and for restoring this place to its full potential!More</t>
   </si>
   <si>
+    <t>ScubaKel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r166614222-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -425,6 +464,9 @@
     <t>The worst I have ever seen anywhere - the Health Dept needs to shut it down! Called Motel 6 corporate and they are investigating. It was easy to book online, and I got a special Internet rate when I reserved my deluxe king size room. The manager barely spoke English, kept interrupting my check-in to help other people, and it took 40mins to get keys. Those were to a double queen handicapped room, which had mold and mildew, the ceiling in the bathroom falling down, and a burst water pipe so the carpet was soaking wet. When I asked to switch rooms, they said they didn't have any others - even the one I reserved. I called Motel 6 guest relations, filed a formal complaint, and they called the manager. Lo and behold - there is the room I booked, which they called a "special" room that was more money. It was trashed, too, but we changed to that - still having to pay more money! They did not honor any of our rates at all, and wanted to sell me a week prepaid. The room was worse than a flop house - couch chewed and falling apart; saggy, old bouncy mattress with no pad; no batteries in smoke detector; bullet hole in glass window; rips in carpet; the list goes on. The worst was when a huge Roach ran across the bed! We hightailed it out of there and...The worst I have ever seen anywhere - the Health Dept needs to shut it down! Called Motel 6 corporate and they are investigating. It was easy to book online, and I got a special Internet rate when I reserved my deluxe king size room. The manager barely spoke English, kept interrupting my check-in to help other people, and it took 40mins to get keys. Those were to a double queen handicapped room, which had mold and mildew, the ceiling in the bathroom falling down, and a burst water pipe so the carpet was soaking wet. When I asked to switch rooms, they said they didn't have any others - even the one I reserved. I called Motel 6 guest relations, filed a formal complaint, and they called the manager. Lo and behold - there is the room I booked, which they called a "special" room that was more money. It was trashed, too, but we changed to that - still having to pay more money! They did not honor any of our rates at all, and wanted to sell me a week prepaid. The room was worse than a flop house - couch chewed and falling apart; saggy, old bouncy mattress with no pad; no batteries in smoke detector; bullet hole in glass window; rips in carpet; the list goes on. The worst was when a huge Roach ran across the bed! We hightailed it out of there and went to Value Place in Trophy Club, which is clean and a good value.More</t>
   </si>
   <si>
+    <t>Jim G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r153248398-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -446,6 +488,9 @@
     <t>Got a King Suite - Had a desk no Chair, Brought this to their attention. Response "You need a chair? " Room 204 - Pillows looked to be 20 years old. Toliet had to use the Ice bucket to add water to the back after flushing - Float Mech. needs replaced . Stayed here when it was a Comfort Inn - No Problem . Conforter was a Dark Green with a large spot ( I suspect Bleech) on it. The phone key pad looked liked someone poured coke on ot Keys stuck . I did agressive request a replacement - They gave me a new one. My stay here was only a total of 4 days until I moved to La Quinta . I suspect if a little is Maintence and Upkeep is notll this MOTEL DUMP  invested in You can caMore</t>
   </si>
   <si>
+    <t>leeann33</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r149367291-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -464,6 +509,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>EM57_Traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r7781055-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -480,6 +528,9 @@
   </si>
   <si>
     <t>June 2007</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r4306019-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
@@ -1020,43 +1071,47 @@
       <c r="A2" t="n">
         <v>36167</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>169219</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1070,50 +1125,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>36167</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>169220</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -1131,50 +1190,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>36167</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>169221</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -1192,56 +1255,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>36167</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>169222</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1255,50 +1322,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>36167</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>169223</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -1316,50 +1387,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>36167</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>4517</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="O7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -1379,50 +1454,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>36167</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>304</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -1442,50 +1521,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>36167</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>169224</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -1505,41 +1588,45 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>36167</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>169225</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
@@ -1556,56 +1643,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="X10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="Y10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>36167</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>169226</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="L11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="O11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -1625,41 +1716,45 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>36167</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>169227</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
@@ -1688,50 +1783,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>36167</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>169228</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="O13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -1755,50 +1854,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>36167</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>169229</v>
+      </c>
+      <c r="C14" t="s">
+        <v>139</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="O14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
@@ -1822,50 +1925,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>36167</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>922</v>
+      </c>
+      <c r="C15" t="s">
+        <v>148</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="J15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="K15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="L15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P15" t="n">
         <v>2</v>
@@ -1889,50 +1996,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>36167</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>169230</v>
+      </c>
+      <c r="C16" t="s">
+        <v>156</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="J16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="K16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="L16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -1956,50 +2067,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>36167</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>169231</v>
+      </c>
+      <c r="C17" t="s">
+        <v>163</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="J17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="K17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="L17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="O17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P17" t="n">
         <v>2</v>
@@ -2023,41 +2138,45 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>36167</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>170</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="J18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="K18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="L18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
@@ -2084,41 +2203,45 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>36167</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>170</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="J19" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="K19" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="L19" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
@@ -2145,7 +2268,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_547.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_547.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="261">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,96 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>12marijke</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/25/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r607438621-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>55461</t>
+  </si>
+  <si>
+    <t>2170350</t>
+  </si>
+  <si>
+    <t>607438621</t>
+  </si>
+  <si>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>Nasty</t>
+  </si>
+  <si>
+    <t>They charge too much which is not reasonable. The blanket is nasty, there is stain and hair of the dog everywhere in the blanket. As soon as I seen it, I suddenly removed it and requested new and the customer service just said “we will bring up there”. Me and my Husband been waited too long and ended up nothing. They deserved not even a 1 star. We stayed this motel w/o reading all those negative feedback just because my husband was so sick and he required resting as we drove all the way here from Colorado. Nasty motel and very rude employee. Whoever the management is- they should pay a lot of attention to train thier employee on how to have a good manners to treat their customer in a nice way.  Shame on this motel management.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Ft Worth- Bedford, responded to this reviewResponded 6 days ago</t>
+  </si>
+  <si>
+    <t>Responded 6 days ago</t>
+  </si>
+  <si>
+    <t>They charge too much which is not reasonable. The blanket is nasty, there is stain and hair of the dog everywhere in the blanket. As soon as I seen it, I suddenly removed it and requested new and the customer service just said “we will bring up there”. Me and my Husband been waited too long and ended up nothing. They deserved not even a 1 star. We stayed this motel w/o reading all those negative feedback just because my husband was so sick and he required resting as we drove all the way here from Colorado. Nasty motel and very rude employee. Whoever the management is- they should pay a lot of attention to train thier employee on how to have a good manners to treat their customer in a nice way.  Shame on this motel management.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r520740765-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>520740765</t>
+  </si>
+  <si>
+    <t>09/03/2017</t>
+  </si>
+  <si>
+    <t>Shower and a bed.</t>
+  </si>
+  <si>
+    <t>Very nice motel for the price.  Well lit parking, clean room, acceptable shower, and inexpensive. Just needed a room and Motel 6 was ok. Check-in was quick and easy. Just off the highway,  easy off and on.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2017</t>
+  </si>
+  <si>
+    <t>Very nice motel for the price.  Well lit parking, clean room, acceptable shower, and inexpensive. Just needed a room and Motel 6 was ok. Check-in was quick and easy. Just off the highway,  easy off and on.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r482478210-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>482478210</t>
+  </si>
+  <si>
+    <t>05/07/2017</t>
+  </si>
+  <si>
+    <t>International Pest Hole</t>
+  </si>
+  <si>
+    <t>This place is a public nuisance.  Check with the Bedford Fire Marshal to see if the safety violations have been corrected.  Otherwise, do not hazard your family's general health and safety by staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Ft Worth- Bedford, responded to this reviewResponded May 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2017</t>
+  </si>
+  <si>
+    <t>This place is a public nuisance.  Check with the Bedford Fire Marshal to see if the safety violations have been corrected.  Otherwise, do not hazard your family's general health and safety by staying here.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r429526202-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
-    <t>55461</t>
-  </si>
-  <si>
-    <t>2170350</t>
-  </si>
-  <si>
     <t>429526202</t>
   </si>
   <si>
@@ -177,15 +252,9 @@
     <t>October 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>The hotel in being worked on. The grounds are dirty with litter and cigarettes. Lobby was not accessible. I asked for a room with a fridge and microwave. There was none. I called the front desk and he said none of the rooms have one. The road noise from the busy highway was so loud I could not sleep. The room had a bed, a desk, a chair, a TV hanging on the wall, that was it. The bathroom was so old and dingy I would not use it. The room 118 is adjoined to 120 with an interior door, I could hear those guests who were so loud, I could not hear the TV. After 2 hours, I was disgusted and left.More</t>
   </si>
   <si>
-    <t>HenryKnow</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r421615266-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -208,9 +277,6 @@
   </si>
   <si>
     <t>This is the worse hotel I've ever stayed at. The room smelt awful like cigarettes even though I got a non-smoking room. The bathroom floor was very dirty and wasn't mopped. The toilet was filthy as can be. There was yellow stains where the toilet water line was which means that they didn't bother cleaning the toilet on a regular basis. The bed and sheets was very dirty. The bed and pillow wasn't comfortable at all. The room advertised a fridge however when I got to my room there was no fridge. I asked to stay in a fridge and the front desk said there is no fridge. I would not recommend staying at this place at all.More</t>
-  </si>
-  <si>
-    <t>TonyandHilda</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r415143303-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
@@ -242,7 +308,46 @@
 Finally got to our room and it seem to be empty, Just a bed with a TV. Wood flooring seem to be brand new and room seem clean. No clothhanging furniture, ironing board or iron. Restroom tile seem to be in process, like they were going to remove it but decided not to. Towels had a paint like smell like they were stored on a newley painted facility. Next couple of days we used stairs to go out and hallways and starways still full of wall dust and cigaret buds although the construction crew had left for the week end. Coffee was served at lobby for morining, but...Drove in for a Rangers game and a local bbq and blues festival. At check in found hotel under renovation, did not think much of it although the lobby did have materials and was full of construction dust. Used elevator to carry my lugage to room and elevator was full of dirt as well with splaters of white wall filler from I'm guessing the remodel in effect, still not prejudging. Got to my room and key card will not open door, used stair way to have key exchanged and carpets and stair way with alot of construction dust and cigar buds and empthy cigar boxes. At reception, gentlemen apoligize for inconvinience with card and advised me to: " call from my room If I was still having issues with my key" ???Finally got to our room and it seem to be empty, Just a bed with a TV. Wood flooring seem to be brand new and room seem clean. No clothhanging furniture, ironing board or iron. Restroom tile seem to be in process, like they were going to remove it but decided not to. Towels had a paint like smell like they were stored on a newley painted facility. Next couple of days we used stairs to go out and hallways and starways still full of wall dust and cigaret buds although the construction crew had left for the week end. Coffee was served at lobby for morining, but the atmosfere was not apealing. We understand the fact that the hotel is on a remodel process, but the reception host could make at least the walkways and elevator more apealing instead of just sitting waiting for his/her shift to end. A quick vaccum on the carpeted area for just that week end that there was no construcction going on could have gone a long way. Also if a room was not ready for availability, don't make it Available! Due to the great location, next to a Steakhouse, a cheap eats fast food restaurant, a tire shop behind and just off the hwy way makes it appealing. By the way if you want a great breakfast with Great service, just go across the Highway. The next day I had problems with my key card again, so here we go with the same story. If I went back to town, I would give it one more chanse once it is completely remodeled and clened up.More</t>
   </si>
   <si>
-    <t>Yocheved S</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r396805105-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>396805105</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>Find a homeless shelter for your stay over this place!</t>
+  </si>
+  <si>
+    <t>This place is a complete DUMP! The intense odor, the "elements" around the property and the customer service (or lack thereof) is mind boggling! From the "individual" at the front desk, to the horrible stench, to the dogs barking inside the rooms and to the filth of the entire room is devastating.  I would have felt "ripped off" and "violated" if I had to pay $10.00 much less the $50.00 that I paid.  I was SO tired I didn't want to drive and find another hotel. In the first room I was in, the TV did not work, the bathroom and shower were dirty and the "individual at the front desk was horrible.  It was as though I was interrupting his "phone watching" to ask for another room...he eventually relented when I raised my voice.  I would NOT recommend this to anyone and I have seen nicer kennels than this place!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>This place is a complete DUMP! The intense odor, the "elements" around the property and the customer service (or lack thereof) is mind boggling! From the "individual" at the front desk, to the horrible stench, to the dogs barking inside the rooms and to the filth of the entire room is devastating.  I would have felt "ripped off" and "violated" if I had to pay $10.00 much less the $50.00 that I paid.  I was SO tired I didn't want to drive and find another hotel. In the first room I was in, the TV did not work, the bathroom and shower were dirty and the "individual at the front desk was horrible.  It was as though I was interrupting his "phone watching" to ask for another room...he eventually relented when I raised my voice.  I would NOT recommend this to anyone and I have seen nicer kennels than this place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r376921680-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>376921680</t>
+  </si>
+  <si>
+    <t>05/26/2016</t>
+  </si>
+  <si>
+    <t>Disgusting</t>
+  </si>
+  <si>
+    <t>The first room they put us in was filthy and reeked of urine.  The second room was a better but it took an act of Congress to get linens for the pull out sofa.  The TV had no sound and the smoke detector was missing completely.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r341181597-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
@@ -263,9 +368,6 @@
     <t>January 2016</t>
   </si>
   <si>
-    <t>mmkarim786</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r334257057-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -284,9 +386,6 @@
     <t>December 2015</t>
   </si>
   <si>
-    <t>Jamie S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r309505987-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -305,7 +404,58 @@
     <t>June 2015</t>
   </si>
   <si>
-    <t>David B</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r290086485-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>290086485</t>
+  </si>
+  <si>
+    <t>07/18/2015</t>
+  </si>
+  <si>
+    <t>Good Price and Nice Staff, But Very Dirty</t>
+  </si>
+  <si>
+    <t>This motel is staffed by friendly people and is fair on price, but cleaning appears to be a low priority at this property. My room was spacious, but there was old wrappers and bottle caps left on the floor. The bathroom was in terrible shape. The shower curtain rod was coming off the wall and there was visible mold and dirt on the wall. Some of the light fixtures and towel racks were missing off the walls. The toilet was in less than presentable condition. This motel is need of updating. I give the staff an A+, but management at this hotel needs to invest in improvements. Some of the issues I seen with this property such as loose wall sockets may be building code issues.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Ft Worth- Bedford, responded to this reviewResponded July 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2015</t>
+  </si>
+  <si>
+    <t>This motel is staffed by friendly people and is fair on price, but cleaning appears to be a low priority at this property. My room was spacious, but there was old wrappers and bottle caps left on the floor. The bathroom was in terrible shape. The shower curtain rod was coming off the wall and there was visible mold and dirt on the wall. Some of the light fixtures and towel racks were missing off the walls. The toilet was in less than presentable condition. This motel is need of updating. I give the staff an A+, but management at this hotel needs to invest in improvements. Some of the issues I seen with this property such as loose wall sockets may be building code issues.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r274215226-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>274215226</t>
+  </si>
+  <si>
+    <t>05/24/2015</t>
+  </si>
+  <si>
+    <t>Dirty &amp; Dated</t>
+  </si>
+  <si>
+    <t>Didn't get the room I paid for, it was very dirty (vents covered in dust &amp; grime, old soda bottles under bed, floor sticky, stains on bedding), towels were paper thin, smelled yucky, a/c wouldn't work, could here others in next rooms very clearly, ceiling was damaged in bathroom, beds were hard. Staff was on a personal call &amp; I had to wait to check in. Smoking hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Ft Worth- Bedford, responded to this reviewResponded May 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2015</t>
+  </si>
+  <si>
+    <t>Didn't get the room I paid for, it was very dirty (vents covered in dust &amp; grime, old soda bottles under bed, floor sticky, stains on bedding), towels were paper thin, smelled yucky, a/c wouldn't work, could here others in next rooms very clearly, ceiling was damaged in bathroom, beds were hard. Staff was on a personal call &amp; I had to wait to check in. Smoking hotel.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r264545562-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
@@ -326,9 +476,6 @@
     <t>March 2015</t>
   </si>
   <si>
-    <t>Grace Michele S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r264541202-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -347,9 +494,6 @@
     <t>From the moment I checked in I felt at home the staff is friendly and the hotel is comfortable. after deciding to make it an extended stay, the owner MiMi  was very helpful with getting me settled in for my stay she made sure that I was moved to a  new room with fridge and a microwave. The maid service was done by very nice and hard working ladies , The coffee service in the am was a blessing, and the occasional driving through the property of the Bedford police department made walking my dog after sundown less taxing on me being in a new environment. Basically loved the place the staff and the warm and prompt service and will be back again!More</t>
   </si>
   <si>
-    <t>AJ I</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r264090330-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -374,7 +518,37 @@
     <t>We had to stay in this hotel while visiting family in Dallas. We were totally disgusted with our stayList of flaws includes: pubes on towelscompletely outdated appliancesmoldy showerterrible mattressesWorst of all our toilet broke. The water flooded the bathroom and we were left with no facilities. The only thing saving a one star review was the sweet maid that came quickly and politely cleaned. When we went to complain to the man at the desk, he turned to blame it on us for not telling him quickly enough. He could not doing anything in terms of a refund, but he had ME talk to a manager on the phone. Lucky for them they gave a 50% reimbursement.Even without the toilet this would have been a dreadful stay. AVOIDMore</t>
   </si>
   <si>
-    <t>midnightkat</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r261315921-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>261315921</t>
+  </si>
+  <si>
+    <t>03/23/2015</t>
+  </si>
+  <si>
+    <t>A horrible experience</t>
+  </si>
+  <si>
+    <t>A totally horrible experience.  My family has stayed at Motel 6 when they travel for over 30 years and this was the worst experience I have ever had.  I read the reviews and thought they were exaggerated because I have stayed in this particular motel before.  The reviews were understated.  I took my family including two young granddaughters into what was no less than a half-way house.  The hallways were hot and smelled, the room smelled of smoke although it was non-smoking, there were greasy stains on the cabinet tops and the bathroom was unbelievable.  I have lost my faith in Motel 6 that they will allow their name to be associated with such an unworthy establishment.  It took us over an hour to find a place to stay because all the other motels were booked for events occurring through the weekend. I will not be returning to a Motel 6 anytime in the future. Very disappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>A totally horrible experience.  My family has stayed at Motel 6 when they travel for over 30 years and this was the worst experience I have ever had.  I read the reviews and thought they were exaggerated because I have stayed in this particular motel before.  The reviews were understated.  I took my family including two young granddaughters into what was no less than a half-way house.  The hallways were hot and smelled, the room smelled of smoke although it was non-smoking, there were greasy stains on the cabinet tops and the bathroom was unbelievable.  I have lost my faith in Motel 6 that they will allow their name to be associated with such an unworthy establishment.  It took us over an hour to find a place to stay because all the other motels were booked for events occurring through the weekend. I will not be returning to a Motel 6 anytime in the future. Very disappointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r249000271-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>249000271</t>
+  </si>
+  <si>
+    <t>01/12/2015</t>
+  </si>
+  <si>
+    <t>Nasty furniture and rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed in the room for maybe an hour the couch was black, stained, and smelled so bad. The walls had writing all over them, the window had wood covering it and when I asked for a refund the Pakistan lady threw a huge fit because I wanted to be refunded she was absolutely rude and asked me if I wanted a nicer room why didn't I chose some where nicer I didn't know the room would be so nasty. Never mind there was nothing but homeless looking people walking around that place and someone tried to open the hotel room door while I was in the whole hour. </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r238192503-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
@@ -395,9 +569,6 @@
     <t>October 2014</t>
   </si>
   <si>
-    <t>SheilaAnderson316</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r196568035-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -413,9 +584,6 @@
     <t>Due to my husband's job we have stayed in many hotels and I have to say that this one is the nicest one we have stayed at. Everything is always clean, I didn't see one bug during our stay of a month, the staff is friendly, and we had a microwave in our room which really comes on handy when you are staying for a few days. The General Manager Mimi was very helpful and always answered all of our questions. I definitely recommend this place to anyone looking to stay the night or even a few weeks.Sheila A.</t>
   </si>
   <si>
-    <t>jamie p</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r194751950-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -437,7 +605,48 @@
     <t>This is like a Totally NEW PLACE compared to last years visit! Somebody is actually giving this place the much needed Tender Loving Care. so many new faces of which are so courteous and actually have customer service skills. My room was clean , bed linens clean, coke machines work, laundry rooms cleaned, and they are repairing other things throughout building! The new Coffee and Tea station in the Lobby was a nice, added perk! it appears they've chased all the "Shady" characters out , and I've not seen the police at all(unlike my last stay when they were here twice).Good Job Motel 6, for restoring my faith in your Motel, and for restoring this place to its full potential!More</t>
   </si>
   <si>
-    <t>ScubaKel</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r193981289-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>193981289</t>
+  </si>
+  <si>
+    <t>02/13/2014</t>
+  </si>
+  <si>
+    <t>WOW! New management makes all the difference!</t>
+  </si>
+  <si>
+    <t>In January a new management team took over, there has been a huge difference ! The rooms I've stayed in are actually clean, taken care of, and I'm really impressed with the changes. The lobby and vending areas have been cleaned, repaired, and I've noticed a bunch of maintenance and repairs have been going on. This new management actually cares about the place. You can see it in there customer service , and overall professional attitude. I give this Motel 6 -2 thumbs up for the amazing turn around !</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r181208480-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>181208480</t>
+  </si>
+  <si>
+    <t>10/15/2013</t>
+  </si>
+  <si>
+    <t>Pool of blood on the floor!! STAY AWAY!</t>
+  </si>
+  <si>
+    <t>This place used to be nice. USED TO BE. I don't know what happened. New management? I used to stay a lot and always had a clean room and nice experience. 
+It had been about three months since I had been back. I arrived with my young son. There were broken room windows. Broken down cars with flat tires in the parking lot. Shady looking people smoking outside. Upon entering the lobby, I noticed a dank, musty smell. Figuring it was a fluke since I always had good experiences, I ignored it. We checked into our room and the remote didn't work. While we were waiting, and thank God nothing was unpacked, I went into the restroom. To my horror, in the grouting of the floor tile, was BLOOD. Not a little bit of blood like someone cut themselves shaving. Someone was injured badly. There was blood on the wall and on the toilet. I ran back out into the room and then saw the blood on the table and near the telephone. I gathered up my child and went to the front desk. I could not BELIEVE they rented me that room! The cleaning person just ignored all of that blood? I was disgusted. The older man that was there seemed annoyed by my concern. The younger man was quick to help. I just wanted my money back, but he insisted on getting me into another room. I was...This place used to be nice. USED TO BE. I don't know what happened. New management? I used to stay a lot and always had a clean room and nice experience. It had been about three months since I had been back. I arrived with my young son. There were broken room windows. Broken down cars with flat tires in the parking lot. Shady looking people smoking outside. Upon entering the lobby, I noticed a dank, musty smell. Figuring it was a fluke since I always had good experiences, I ignored it. We checked into our room and the remote didn't work. While we were waiting, and thank God nothing was unpacked, I went into the restroom. To my horror, in the grouting of the floor tile, was BLOOD. Not a little bit of blood like someone cut themselves shaving. Someone was injured badly. There was blood on the wall and on the toilet. I ran back out into the room and then saw the blood on the table and near the telephone. I gathered up my child and went to the front desk. I could not BELIEVE they rented me that room! The cleaning person just ignored all of that blood? I was disgusted. The older man that was there seemed annoyed by my concern. The younger man was quick to help. I just wanted my money back, but he insisted on getting me into another room. I was hesitant, but I agreed. This room didn't have Nick, which irritated my child since it was on in the other room. The air conditioner barely worked. I went into the bathroom to find a colony of fire ants! To top it off...no hot water. I was incensed. It was late at that point and I could not be dragging my young child from place to place. In the morning, I told the older man that I was extremely disappointed and I really wanted at least a partial refund. Of course he wasn't going to do that. He wrote on a piece of paper that I could stay the next weekend in "one of the nicer rooms." I was angry that I couldn't be mad. I just thanked him and left. There was NO WAY I was going back to that mess.Yes, Motel 6 is a 1 or 2 star hotel. You get what you pay for. However, I have paid less at other places and had a much better experience. Also, I had no reason to believe that anything had changed from my prior visits. I am just thankful that neither my son nor I came into contact with the blood. The management here is just very non-chalant. The place is only marginally clean and it is smelly. If you are looking for a cheap place to lay your head and aren't concerned with anything that I mentioned, then this would be a good place for you. Otherwise, I recommend spending an additional 30-40 dollars and getting a suite at one of the hotels near the airport!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Motel6, Public Relations Manager at Motel 6 Ft Worth- Bedford, responded to this reviewResponded October 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2013</t>
+  </si>
+  <si>
+    <t>This place used to be nice. USED TO BE. I don't know what happened. New management? I used to stay a lot and always had a clean room and nice experience. 
+It had been about three months since I had been back. I arrived with my young son. There were broken room windows. Broken down cars with flat tires in the parking lot. Shady looking people smoking outside. Upon entering the lobby, I noticed a dank, musty smell. Figuring it was a fluke since I always had good experiences, I ignored it. We checked into our room and the remote didn't work. While we were waiting, and thank God nothing was unpacked, I went into the restroom. To my horror, in the grouting of the floor tile, was BLOOD. Not a little bit of blood like someone cut themselves shaving. Someone was injured badly. There was blood on the wall and on the toilet. I ran back out into the room and then saw the blood on the table and near the telephone. I gathered up my child and went to the front desk. I could not BELIEVE they rented me that room! The cleaning person just ignored all of that blood? I was disgusted. The older man that was there seemed annoyed by my concern. The younger man was quick to help. I just wanted my money back, but he insisted on getting me into another room. I was...This place used to be nice. USED TO BE. I don't know what happened. New management? I used to stay a lot and always had a clean room and nice experience. It had been about three months since I had been back. I arrived with my young son. There were broken room windows. Broken down cars with flat tires in the parking lot. Shady looking people smoking outside. Upon entering the lobby, I noticed a dank, musty smell. Figuring it was a fluke since I always had good experiences, I ignored it. We checked into our room and the remote didn't work. While we were waiting, and thank God nothing was unpacked, I went into the restroom. To my horror, in the grouting of the floor tile, was BLOOD. Not a little bit of blood like someone cut themselves shaving. Someone was injured badly. There was blood on the wall and on the toilet. I ran back out into the room and then saw the blood on the table and near the telephone. I gathered up my child and went to the front desk. I could not BELIEVE they rented me that room! The cleaning person just ignored all of that blood? I was disgusted. The older man that was there seemed annoyed by my concern. The younger man was quick to help. I just wanted my money back, but he insisted on getting me into another room. I was hesitant, but I agreed. This room didn't have Nick, which irritated my child since it was on in the other room. The air conditioner barely worked. I went into the bathroom to find a colony of fire ants! To top it off...no hot water. I was incensed. It was late at that point and I could not be dragging my young child from place to place. In the morning, I told the older man that I was extremely disappointed and I really wanted at least a partial refund. Of course he wasn't going to do that. He wrote on a piece of paper that I could stay the next weekend in "one of the nicer rooms." I was angry that I couldn't be mad. I just thanked him and left. There was NO WAY I was going back to that mess.Yes, Motel 6 is a 1 or 2 star hotel. You get what you pay for. However, I have paid less at other places and had a much better experience. Also, I had no reason to believe that anything had changed from my prior visits. I am just thankful that neither my son nor I came into contact with the blood. The management here is just very non-chalant. The place is only marginally clean and it is smelly. If you are looking for a cheap place to lay your head and aren't concerned with anything that I mentioned, then this would be a good place for you. Otherwise, I recommend spending an additional 30-40 dollars and getting a suite at one of the hotels near the airport!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r166614222-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
@@ -458,15 +667,9 @@
     <t>July 2013</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>The worst I have ever seen anywhere - the Health Dept needs to shut it down! Called Motel 6 corporate and they are investigating. It was easy to book online, and I got a special Internet rate when I reserved my deluxe king size room. The manager barely spoke English, kept interrupting my check-in to help other people, and it took 40mins to get keys. Those were to a double queen handicapped room, which had mold and mildew, the ceiling in the bathroom falling down, and a burst water pipe so the carpet was soaking wet. When I asked to switch rooms, they said they didn't have any others - even the one I reserved. I called Motel 6 guest relations, filed a formal complaint, and they called the manager. Lo and behold - there is the room I booked, which they called a "special" room that was more money. It was trashed, too, but we changed to that - still having to pay more money! They did not honor any of our rates at all, and wanted to sell me a week prepaid. The room was worse than a flop house - couch chewed and falling apart; saggy, old bouncy mattress with no pad; no batteries in smoke detector; bullet hole in glass window; rips in carpet; the list goes on. The worst was when a huge Roach ran across the bed! We hightailed it out of there and...The worst I have ever seen anywhere - the Health Dept needs to shut it down! Called Motel 6 corporate and they are investigating. It was easy to book online, and I got a special Internet rate when I reserved my deluxe king size room. The manager barely spoke English, kept interrupting my check-in to help other people, and it took 40mins to get keys. Those were to a double queen handicapped room, which had mold and mildew, the ceiling in the bathroom falling down, and a burst water pipe so the carpet was soaking wet. When I asked to switch rooms, they said they didn't have any others - even the one I reserved. I called Motel 6 guest relations, filed a formal complaint, and they called the manager. Lo and behold - there is the room I booked, which they called a "special" room that was more money. It was trashed, too, but we changed to that - still having to pay more money! They did not honor any of our rates at all, and wanted to sell me a week prepaid. The room was worse than a flop house - couch chewed and falling apart; saggy, old bouncy mattress with no pad; no batteries in smoke detector; bullet hole in glass window; rips in carpet; the list goes on. The worst was when a huge Roach ran across the bed! We hightailed it out of there and went to Value Place in Trophy Club, which is clean and a good value.More</t>
   </si>
   <si>
-    <t>Jim G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r153248398-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -488,9 +691,6 @@
     <t>Got a King Suite - Had a desk no Chair, Brought this to their attention. Response "You need a chair? " Room 204 - Pillows looked to be 20 years old. Toliet had to use the Ice bucket to add water to the back after flushing - Float Mech. needs replaced . Stayed here when it was a Comfort Inn - No Problem . Conforter was a Dark Green with a large spot ( I suspect Bleech) on it. The phone key pad looked liked someone poured coke on ot Keys stuck . I did agressive request a replacement - They gave me a new one. My stay here was only a total of 4 days until I moved to La Quinta . I suspect if a little is Maintence and Upkeep is notll this MOTEL DUMP  invested in You can caMore</t>
   </si>
   <si>
-    <t>leeann33</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r149367291-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -509,7 +709,50 @@
     <t>January 2013</t>
   </si>
   <si>
-    <t>EM57_Traveler</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r125559096-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>125559096</t>
+  </si>
+  <si>
+    <t>03/03/2012</t>
+  </si>
+  <si>
+    <t>Filthy and Poor Management</t>
+  </si>
+  <si>
+    <t>This Motel 6 was previously a Comfort Inn. The only positive things I can say are the rooms are very large with a lot of open space and the fitness equipment was actually in decent shape. Keeping in mind that this is a lower end motel chain I will try and be fair. 
+The first room he put me in was not clean so he had to give me another room. The website stated that all rooms included a microwave and fridge which is not true. In time housekeeping brought me a dirty fridge but she said "this one works". I was told later that very few rooms have the microwave/fridge combo and the management is doing away with them as they quit working.  The walls are filthy, stains, spots and soda drip lines running down them. The Comfort Inn phone labels had been ripped off leaving sticker residue and no new info labels.  Linens are old, torn and stained. The bed was just OK. The bathroom: sink was missing a stopper but otherwise gets a passing grade. The walls are terribly thin so be prepared to hear everything that goes on in the rooms next to you. 
+The first thing I noticed as I entered the room was the door swing bar/lock in my room was broken, missing a part so there was no way to secure it. I went back down to the lobby to ask the manager...This Motel 6 was previously a Comfort Inn. The only positive things I can say are the rooms are very large with a lot of open space and the fitness equipment was actually in decent shape. Keeping in mind that this is a lower end motel chain I will try and be fair. The first room he put me in was not clean so he had to give me another room. The website stated that all rooms included a microwave and fridge which is not true. In time housekeeping brought me a dirty fridge but she said "this one works". I was told later that very few rooms have the microwave/fridge combo and the management is doing away with them as they quit working.  The walls are filthy, stains, spots and soda drip lines running down them. The Comfort Inn phone labels had been ripped off leaving sticker residue and no new info labels.  Linens are old, torn and stained. The bed was just OK. The bathroom: sink was missing a stopper but otherwise gets a passing grade. The walls are terribly thin so be prepared to hear everything that goes on in the rooms next to you. The first thing I noticed as I entered the room was the door swing bar/lock in my room was broken, missing a part so there was no way to secure it. I went back down to the lobby to ask the manager if he could repair it. He came and looked at it and said "use this one" referring to the deadbolt. I commented about safety and he said "you be fine". The hotel is filthy with trash from the parking lot, to the lobby and throughout the halls. I stayed 3 weeks, because of price and location, and the same trash was on the floor in the lobby when I left as when I arrived. Many of the window screens were laying on the ground or roof, bent and broken. The side door key box did not work. The vending area was dirty and machines were rusted. It appears the new management simply ripped down all old sign from the Comfort Inn days and made no attempt to repair holes in the walls or put new decorations up. I was told by staff that the manager rarely brings in maintenance and it definitely shows. Most of the staff are very nice and will do what they can to make you happy but its obvious the owner/manager has no interest in anything but taking your credit card. I didn't expect much from a Motel 6 as I have stayed at many of them, but I did expect more than this property is providing. It's a shame that the owner is letting it run down.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>This Motel 6 was previously a Comfort Inn. The only positive things I can say are the rooms are very large with a lot of open space and the fitness equipment was actually in decent shape. Keeping in mind that this is a lower end motel chain I will try and be fair. 
+The first room he put me in was not clean so he had to give me another room. The website stated that all rooms included a microwave and fridge which is not true. In time housekeeping brought me a dirty fridge but she said "this one works". I was told later that very few rooms have the microwave/fridge combo and the management is doing away with them as they quit working.  The walls are filthy, stains, spots and soda drip lines running down them. The Comfort Inn phone labels had been ripped off leaving sticker residue and no new info labels.  Linens are old, torn and stained. The bed was just OK. The bathroom: sink was missing a stopper but otherwise gets a passing grade. The walls are terribly thin so be prepared to hear everything that goes on in the rooms next to you. 
+The first thing I noticed as I entered the room was the door swing bar/lock in my room was broken, missing a part so there was no way to secure it. I went back down to the lobby to ask the manager...This Motel 6 was previously a Comfort Inn. The only positive things I can say are the rooms are very large with a lot of open space and the fitness equipment was actually in decent shape. Keeping in mind that this is a lower end motel chain I will try and be fair. The first room he put me in was not clean so he had to give me another room. The website stated that all rooms included a microwave and fridge which is not true. In time housekeeping brought me a dirty fridge but she said "this one works". I was told later that very few rooms have the microwave/fridge combo and the management is doing away with them as they quit working.  The walls are filthy, stains, spots and soda drip lines running down them. The Comfort Inn phone labels had been ripped off leaving sticker residue and no new info labels.  Linens are old, torn and stained. The bed was just OK. The bathroom: sink was missing a stopper but otherwise gets a passing grade. The walls are terribly thin so be prepared to hear everything that goes on in the rooms next to you. The first thing I noticed as I entered the room was the door swing bar/lock in my room was broken, missing a part so there was no way to secure it. I went back down to the lobby to ask the manager if he could repair it. He came and looked at it and said "use this one" referring to the deadbolt. I commented about safety and he said "you be fine". The hotel is filthy with trash from the parking lot, to the lobby and throughout the halls. I stayed 3 weeks, because of price and location, and the same trash was on the floor in the lobby when I left as when I arrived. Many of the window screens were laying on the ground or roof, bent and broken. The side door key box did not work. The vending area was dirty and machines were rusted. It appears the new management simply ripped down all old sign from the Comfort Inn days and made no attempt to repair holes in the walls or put new decorations up. I was told by staff that the manager rarely brings in maintenance and it definitely shows. Most of the staff are very nice and will do what they can to make you happy but its obvious the owner/manager has no interest in anything but taking your credit card. I didn't expect much from a Motel 6 as I have stayed at many of them, but I did expect more than this property is providing. It's a shame that the owner is letting it run down.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r55018879-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>55018879</t>
+  </si>
+  <si>
+    <t>02/02/2010</t>
+  </si>
+  <si>
+    <t>Nice little hotel.</t>
+  </si>
+  <si>
+    <t>I stayed here in December of 2009 on business and I was pleasantly surprised. The rooms had been recently remodeled (I saw several being cleaned) with paint and carpet looking brand new. The T.V. was older, the heater worked great on a very cold night. They were painting in the hallways the day I left and it did smell of paint. The breakfast was nothing fancy with the typical hotel fruit, waffles, cereal but was very passable. The clerk was polite and new the area. She also mentioned they were still in the process of finishing the remodeling. All in all I thought it was a great value near DFW, especially compared to the much higher rates at several other hotels I tried.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>I stayed here in December of 2009 on business and I was pleasantly surprised. The rooms had been recently remodeled (I saw several being cleaned) with paint and carpet looking brand new. The T.V. was older, the heater worked great on a very cold night. They were painting in the hallways the day I left and it did smell of paint. The breakfast was nothing fancy with the typical hotel fruit, waffles, cereal but was very passable. The clerk was polite and new the area. She also mentioned they were still in the process of finishing the remodeling. All in all I thought it was a great value near DFW, especially compared to the much higher rates at several other hotels I tried.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r7781055-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
@@ -528,9 +771,6 @@
   </si>
   <si>
     <t>June 2007</t>
-  </si>
-  <si>
-    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d2170350-r4306019-Motel_6_Ft_Worth_Bedford-Bedford_Texas.html</t>
@@ -1071,48 +1311,40 @@
       <c r="A2" t="n">
         <v>36167</v>
       </c>
-      <c r="B2" t="n">
-        <v>169219</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
-        <v>51</v>
-      </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
-      <c r="N2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
@@ -1122,73 +1354,73 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X2" t="s">
+        <v>52</v>
+      </c>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>36167</v>
       </c>
-      <c r="B3" t="n">
-        <v>169220</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
       <c r="Y3" t="s">
         <v>63</v>
       </c>
@@ -1197,118 +1429,100 @@
       <c r="A4" t="n">
         <v>36167</v>
       </c>
-      <c r="B4" t="n">
-        <v>169221</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>66</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>67</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>68</v>
       </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
-      <c r="N4" t="s">
-        <v>61</v>
-      </c>
-      <c r="O4" t="s">
-        <v>70</v>
-      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
       <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>2</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>3</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" t="s">
         <v>71</v>
-      </c>
-      <c r="X4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>36167</v>
       </c>
-      <c r="B5" t="n">
-        <v>169222</v>
-      </c>
-      <c r="C5" t="s">
-        <v>74</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
         <v>75</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>76</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>77</v>
       </c>
-      <c r="K5" t="s">
-        <v>78</v>
-      </c>
-      <c r="L5" t="s">
-        <v>79</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="s">
-        <v>80</v>
-      </c>
       <c r="O5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1322,64 +1536,60 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>36167</v>
       </c>
-      <c r="B6" t="n">
-        <v>169223</v>
-      </c>
-      <c r="C6" t="s">
-        <v>81</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
         <v>82</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>83</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>84</v>
       </c>
-      <c r="K6" t="s">
+      <c r="O6" t="s">
         <v>85</v>
       </c>
-      <c r="L6" t="s">
-        <v>86</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>87</v>
-      </c>
-      <c r="O6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1394,93 +1604,89 @@
       <c r="A7" t="n">
         <v>36167</v>
       </c>
-      <c r="B7" t="n">
-        <v>4517</v>
-      </c>
-      <c r="C7" t="s">
-        <v>88</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
         <v>89</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>90</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>91</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
         <v>92</v>
       </c>
-      <c r="L7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>94</v>
-      </c>
-      <c r="O7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>93</v>
+      </c>
+      <c r="X7" t="s">
+        <v>94</v>
+      </c>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>36167</v>
       </c>
-      <c r="B8" t="n">
-        <v>304</v>
-      </c>
-      <c r="C8" t="s">
-        <v>95</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
         <v>96</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
       </c>
       <c r="I8" t="s">
         <v>97</v>
@@ -1495,25 +1701,25 @@
         <v>100</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
         <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1521,66 +1727,60 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>36167</v>
       </c>
-      <c r="B9" t="n">
-        <v>169224</v>
-      </c>
-      <c r="C9" t="s">
-        <v>102</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
         <v>103</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
       </c>
       <c r="I9" t="s">
         <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1588,33 +1788,29 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>36167</v>
       </c>
-      <c r="B10" t="n">
-        <v>169225</v>
-      </c>
-      <c r="C10" t="s">
-        <v>109</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
         <v>110</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
       </c>
       <c r="I10" t="s">
         <v>111</v>
@@ -1631,8 +1827,12 @@
       <c r="M10" t="n">
         <v>2</v>
       </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
+      <c r="N10" t="s">
+        <v>115</v>
+      </c>
+      <c r="O10" t="s">
+        <v>92</v>
+      </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
@@ -1642,73 +1842,63 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>115</v>
-      </c>
-      <c r="X10" t="s">
-        <v>116</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>36167</v>
       </c>
-      <c r="B11" t="n">
-        <v>169226</v>
-      </c>
-      <c r="C11" t="s">
-        <v>118</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" t="s">
         <v>119</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="L11" t="s">
         <v>120</v>
       </c>
-      <c r="J11" t="s">
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
         <v>121</v>
       </c>
-      <c r="K11" t="s">
-        <v>122</v>
-      </c>
-      <c r="L11" t="s">
-        <v>123</v>
-      </c>
-      <c r="M11" t="n">
+      <c r="O11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
         <v>5</v>
       </c>
-      <c r="N11" t="s">
-        <v>124</v>
-      </c>
-      <c r="O11" t="s">
-        <v>70</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>3</v>
-      </c>
+      <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1716,66 +1906,62 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>36167</v>
       </c>
-      <c r="B12" t="n">
-        <v>169227</v>
-      </c>
-      <c r="C12" t="s">
-        <v>125</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" t="s">
+        <v>125</v>
+      </c>
+      <c r="L12" t="s">
         <v>126</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
         <v>127</v>
       </c>
-      <c r="J12" t="s">
-        <v>128</v>
-      </c>
-      <c r="K12" t="s">
-        <v>129</v>
-      </c>
-      <c r="L12" t="s">
-        <v>130</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
+      <c r="O12" t="s">
+        <v>92</v>
+      </c>
       <c r="P12" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s"/>
       <c r="R12" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1783,212 +1969,190 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>36167</v>
       </c>
-      <c r="B13" t="n">
-        <v>169228</v>
-      </c>
-      <c r="C13" t="s">
-        <v>131</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K13" t="s">
+        <v>131</v>
+      </c>
+      <c r="L13" t="s">
         <v>132</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
         <v>133</v>
       </c>
-      <c r="J13" t="s">
-        <v>134</v>
-      </c>
-      <c r="K13" t="s">
-        <v>135</v>
-      </c>
-      <c r="L13" t="s">
-        <v>136</v>
-      </c>
-      <c r="M13" t="n">
+      <c r="O13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
         <v>4</v>
       </c>
-      <c r="N13" t="s">
-        <v>137</v>
-      </c>
-      <c r="O13" t="s">
-        <v>62</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>4</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>4</v>
-      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>134</v>
+      </c>
+      <c r="X13" t="s">
+        <v>135</v>
+      </c>
       <c r="Y13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>36167</v>
       </c>
-      <c r="B14" t="n">
-        <v>169229</v>
-      </c>
-      <c r="C14" t="s">
-        <v>139</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" t="s">
+        <v>139</v>
+      </c>
+      <c r="K14" t="s">
         <v>140</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="L14" t="s">
         <v>141</v>
       </c>
-      <c r="J14" t="s">
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
         <v>142</v>
       </c>
-      <c r="K14" t="s">
-        <v>143</v>
-      </c>
-      <c r="L14" t="s">
-        <v>144</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="s">
-        <v>145</v>
-      </c>
       <c r="O14" t="s">
-        <v>146</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>1</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>143</v>
+      </c>
+      <c r="X14" t="s">
+        <v>144</v>
+      </c>
       <c r="Y14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>36167</v>
       </c>
-      <c r="B15" t="n">
-        <v>922</v>
-      </c>
-      <c r="C15" t="s">
-        <v>148</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>147</v>
+      </c>
+      <c r="J15" t="s">
+        <v>148</v>
+      </c>
+      <c r="K15" t="s">
         <v>149</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="L15" t="s">
         <v>150</v>
       </c>
-      <c r="J15" t="s">
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
         <v>151</v>
       </c>
-      <c r="K15" t="s">
-        <v>152</v>
-      </c>
-      <c r="L15" t="s">
-        <v>153</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="s">
-        <v>154</v>
-      </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="P15" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
         <v>4</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1996,67 +2160,59 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>36167</v>
       </c>
-      <c r="B16" t="n">
-        <v>169230</v>
-      </c>
-      <c r="C16" t="s">
-        <v>156</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="J16" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="K16" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="L16" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
       </c>
       <c r="Q16" t="n">
-        <v>4</v>
-      </c>
-      <c r="R16" t="n">
-        <v>4</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
         <v>5</v>
@@ -2067,131 +2223,113 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>36167</v>
       </c>
-      <c r="B17" t="n">
-        <v>169231</v>
-      </c>
-      <c r="C17" t="s">
-        <v>163</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
       <c r="I17" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="J17" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="K17" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="L17" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
-      <c r="N17" t="s">
-        <v>169</v>
-      </c>
-      <c r="O17" t="s">
-        <v>62</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
-      <c r="R17" t="n">
-        <v>3</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2</v>
-      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>3</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>163</v>
+      </c>
+      <c r="X17" t="s">
+        <v>164</v>
+      </c>
       <c r="Y17" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>36167</v>
       </c>
-      <c r="B18" t="n">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>170</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
       <c r="I18" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="J18" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K18" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L18" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
-      <c r="P18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2</v>
-      </c>
+      <c r="N18" t="s">
+        <v>151</v>
+      </c>
+      <c r="O18" t="s">
+        <v>109</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
@@ -2203,48 +2341,44 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>36167</v>
       </c>
-      <c r="B19" t="n">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>170</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
         <v>46</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
       <c r="I19" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="J19" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="K19" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L19" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s"/>
       <c r="O19" t="s"/>
@@ -2252,15 +2386,17 @@
         <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>2</v>
-      </c>
-      <c r="R19" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
       <c r="S19" t="n">
         <v>1</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2268,7 +2404,858 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36167</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>177</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>178</v>
+      </c>
+      <c r="J20" t="s">
+        <v>179</v>
+      </c>
+      <c r="K20" t="s">
+        <v>180</v>
+      </c>
+      <c r="L20" t="s">
+        <v>181</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
         <v>182</v>
+      </c>
+      <c r="O20" t="s">
+        <v>92</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>36167</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>183</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>184</v>
+      </c>
+      <c r="J21" t="s">
+        <v>185</v>
+      </c>
+      <c r="K21" t="s">
+        <v>186</v>
+      </c>
+      <c r="L21" t="s">
+        <v>187</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>36167</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>188</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>189</v>
+      </c>
+      <c r="J22" t="s">
+        <v>190</v>
+      </c>
+      <c r="K22" t="s">
+        <v>191</v>
+      </c>
+      <c r="L22" t="s">
+        <v>192</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>193</v>
+      </c>
+      <c r="O22" t="s">
+        <v>85</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>36167</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>195</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>196</v>
+      </c>
+      <c r="J23" t="s">
+        <v>197</v>
+      </c>
+      <c r="K23" t="s">
+        <v>198</v>
+      </c>
+      <c r="L23" t="s">
+        <v>199</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36167</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>200</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>201</v>
+      </c>
+      <c r="J24" t="s">
+        <v>202</v>
+      </c>
+      <c r="K24" t="s">
+        <v>203</v>
+      </c>
+      <c r="L24" t="s">
+        <v>204</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>205</v>
+      </c>
+      <c r="O24" t="s">
+        <v>109</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>206</v>
+      </c>
+      <c r="X24" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>36167</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>209</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>210</v>
+      </c>
+      <c r="J25" t="s">
+        <v>211</v>
+      </c>
+      <c r="K25" t="s">
+        <v>212</v>
+      </c>
+      <c r="L25" t="s">
+        <v>213</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>214</v>
+      </c>
+      <c r="O25" t="s">
+        <v>109</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36167</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>216</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>217</v>
+      </c>
+      <c r="J26" t="s">
+        <v>218</v>
+      </c>
+      <c r="K26" t="s">
+        <v>219</v>
+      </c>
+      <c r="L26" t="s">
+        <v>220</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>221</v>
+      </c>
+      <c r="O26" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>36167</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>223</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>224</v>
+      </c>
+      <c r="J27" t="s">
+        <v>225</v>
+      </c>
+      <c r="K27" t="s">
+        <v>226</v>
+      </c>
+      <c r="L27" t="s">
+        <v>227</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>228</v>
+      </c>
+      <c r="O27" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36167</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>229</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>230</v>
+      </c>
+      <c r="J28" t="s">
+        <v>231</v>
+      </c>
+      <c r="K28" t="s">
+        <v>232</v>
+      </c>
+      <c r="L28" t="s">
+        <v>233</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>234</v>
+      </c>
+      <c r="O28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36167</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>236</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>237</v>
+      </c>
+      <c r="J29" t="s">
+        <v>238</v>
+      </c>
+      <c r="K29" t="s">
+        <v>239</v>
+      </c>
+      <c r="L29" t="s">
+        <v>240</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>241</v>
+      </c>
+      <c r="O29" t="s">
+        <v>85</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>36167</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>243</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>244</v>
+      </c>
+      <c r="J30" t="s">
+        <v>245</v>
+      </c>
+      <c r="K30" t="s">
+        <v>246</v>
+      </c>
+      <c r="L30" t="s">
+        <v>247</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>248</v>
+      </c>
+      <c r="O30" t="s">
+        <v>85</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>36167</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>249</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>250</v>
+      </c>
+      <c r="J31" t="s">
+        <v>251</v>
+      </c>
+      <c r="K31" t="s">
+        <v>252</v>
+      </c>
+      <c r="L31" t="s">
+        <v>253</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>2</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>36167</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>255</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>256</v>
+      </c>
+      <c r="J32" t="s">
+        <v>257</v>
+      </c>
+      <c r="K32" t="s">
+        <v>258</v>
+      </c>
+      <c r="L32" t="s">
+        <v>259</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
